--- a/mideas1.0功能清淡.xlsx
+++ b/mideas1.0功能清淡.xlsx
@@ -1,146 +1,686 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaosui/Desktop/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA90B81-9F9F-7B47-AE89-52AA74463BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="660" windowWidth="28240" windowHeight="15840" xr2:uid="{9CA79383-327C-F049-83B1-04311E844282}"/>
+    <workbookView windowWidth="28800" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="产品" sheetId="1" r:id="rId1"/>
+    <sheet name="版本" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102">
   <si>
     <t>场景定义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景域新增，修改，删除</t>
   </si>
   <si>
     <t>场景新增，修改，删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景域新增，修改，删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景关联生命周期目录</t>
+  </si>
+  <si>
+    <t>场景新增，删除关联用例关系</t>
   </si>
   <si>
     <t>场景域预新增，预修改，预删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>场景域取消预修改操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>场景预新增，预修改，预删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>场景取消预修改操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景新增，删除关联用例关系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景关联生命周期目录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>特性定义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>特性包新增，修改，删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>特性新增，修改，删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>特性包预新增，预修改，预删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>特性包取消预修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>特性预新增，预修改，预删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>特性取消预修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>系统用例定义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>用例新增，修改，删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>用例目录新增，修改，删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例目录预新增，预修改，预删除</t>
+  </si>
+  <si>
+    <t>用例目录取消预修改</t>
+  </si>
+  <si>
+    <t>用例预新增，预修改，预删除</t>
+  </si>
+  <si>
+    <t>用例取消预修改</t>
+  </si>
+  <si>
+    <t>用例关联场景，关联功能和取消关联</t>
+  </si>
+  <si>
+    <t>生命周期定义</t>
+  </si>
+  <si>
+    <t>生命周期新增，修改，删除</t>
+  </si>
+  <si>
+    <t>生命周期预新增，预修改，预删除</t>
+  </si>
+  <si>
+    <t>生命周期取消预修改</t>
+  </si>
+  <si>
+    <t>上下文定义</t>
+  </si>
+  <si>
+    <t>上下文新增，修改，删除</t>
+  </si>
+  <si>
+    <t>上下文目录新增，修改，删除</t>
+  </si>
+  <si>
+    <t>上下文目录预新增，预修改，预删除</t>
+  </si>
+  <si>
+    <t>上下文目录取消预修改</t>
+  </si>
+  <si>
+    <t>上下文预新增，预修改，预删除</t>
+  </si>
+  <si>
+    <t>上下文取消预修改</t>
+  </si>
+  <si>
+    <t>上下文关联生命周期目录</t>
+  </si>
+  <si>
+    <t>利益相关者定义</t>
+  </si>
+  <si>
+    <t>利益相关者新增，修改，删除</t>
+  </si>
+  <si>
+    <t>利益相关者目录新增，修改，删除</t>
+  </si>
+  <si>
+    <t>利益相关者目录预新增，预修改，预删除</t>
+  </si>
+  <si>
+    <t>利益相关者目录取消预修改</t>
+  </si>
+  <si>
+    <t>利益相关者预新增，预修改，预删除</t>
+  </si>
+  <si>
+    <t>利益相关者取消预修改</t>
+  </si>
+  <si>
+    <t>利益相关者关联生命周期目录</t>
+  </si>
+  <si>
+    <t>质量属性目标定义</t>
+  </si>
+  <si>
+    <t>质量属性目标新增，修改，删除</t>
+  </si>
+  <si>
+    <t>质量属性目标目录新增，修改，删除</t>
+  </si>
+  <si>
+    <t>质量属性目标预新增，预修改，预删除</t>
+  </si>
+  <si>
+    <t>质量属性目标目录取消预修改</t>
+  </si>
+  <si>
+    <t>质量属性目标取消预修改</t>
+  </si>
+  <si>
+    <t>质量属性目标关联场景</t>
+  </si>
+  <si>
+    <t>项目管理</t>
+  </si>
+  <si>
+    <t>领域新增，修改，删除</t>
+  </si>
+  <si>
+    <t>产品新增，修改，删除</t>
+  </si>
+  <si>
+    <t>版本新增，修改，删除</t>
+  </si>
+  <si>
+    <t>任务管理</t>
+  </si>
+  <si>
+    <t>领域设计任务下发</t>
+  </si>
+  <si>
+    <t>查看建议任务</t>
+  </si>
+  <si>
+    <t>需求分析任务下发</t>
+  </si>
+  <si>
+    <t>功能设计任务下发</t>
+  </si>
+  <si>
+    <t>看板统计</t>
+  </si>
+  <si>
+    <t>统计查看资产基线化率</t>
+  </si>
+  <si>
+    <t>统计查看需求完成率</t>
+  </si>
+  <si>
+    <t>全量资产管理</t>
+  </si>
+  <si>
+    <t>整合场景定义，功能定义，特性定义，上下文定义等资产管理</t>
+  </si>
+  <si>
+    <t>需求分析</t>
+  </si>
+  <si>
+    <t>IR重定义</t>
+  </si>
+  <si>
+    <t>IR场景分析</t>
+  </si>
+  <si>
+    <t>请求新建场景任务</t>
+  </si>
+  <si>
+    <t>请求修改场景任务</t>
+  </si>
+  <si>
+    <t>请求修改用例任务</t>
+  </si>
+  <si>
+    <t>请求新建用例任务</t>
+  </si>
+  <si>
+    <t>IR关联场景</t>
+  </si>
+  <si>
+    <t>IR场景DFX分析</t>
+  </si>
+  <si>
+    <t>XIR新增，修改，删除</t>
+  </si>
+  <si>
+    <t>IR功能分析</t>
+  </si>
+  <si>
+    <t>IR关联功能</t>
+  </si>
+  <si>
+    <t>请求新建功能任务</t>
+  </si>
+  <si>
+    <t>请求修改功能任务</t>
+  </si>
+  <si>
+    <t>xir+功能的DFX分析</t>
+  </si>
+  <si>
+    <t>新建sr草稿</t>
+  </si>
+  <si>
+    <t>定义sr</t>
+  </si>
+  <si>
+    <t>提交SR草稿</t>
+  </si>
+  <si>
+    <t>需求管理</t>
+  </si>
+  <si>
+    <t>IR</t>
+  </si>
+  <si>
+    <t>新增，修改，删除IR</t>
+  </si>
+  <si>
+    <t>预新增，预修改，预删除</t>
+  </si>
+  <si>
+    <t>取消预修改</t>
+  </si>
+  <si>
+    <t>ir关联利益相关者</t>
+  </si>
+  <si>
+    <t>ir关联特性</t>
+  </si>
+  <si>
+    <t>ir关联场景域</t>
+  </si>
+  <si>
+    <t>ir关联场景</t>
+  </si>
+  <si>
+    <t>ir转质量属性目标</t>
+  </si>
+  <si>
+    <t>SR</t>
+  </si>
+  <si>
+    <t>新增，修改，删除SR</t>
+  </si>
+  <si>
+    <t>关联功能</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>新增，修改，删除AR</t>
+  </si>
+  <si>
+    <t>关联实现元素</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>同步jdc</t>
+  </si>
+  <si>
+    <t>下发cloudReq</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -148,31 +688,320 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -221,7 +1050,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -254,26 +1083,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -306,23 +1118,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -464,27 +1259,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326504CF-CDD3-1647-B6F4-012CB8DB84D1}">
-  <dimension ref="A1:B20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" customWidth="1"/>
-    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="1" max="1" width="18.2666666666667" customWidth="1"/>
+    <col min="2" max="2" width="60.4666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -492,49 +1282,49 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -592,34 +1382,554 @@
     <row r="17" spans="1:2">
       <c r="A17" s="1"/>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1"/>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1"/>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1"/>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1"/>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1"/>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1"/>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1"/>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1"/>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1"/>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1"/>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1"/>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1"/>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1"/>
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1"/>
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1"/>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1"/>
+      <c r="B36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1"/>
+      <c r="B37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1"/>
+      <c r="B38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1"/>
+      <c r="B40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1"/>
+      <c r="B41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1"/>
+      <c r="B42" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1"/>
+      <c r="B43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1"/>
+      <c r="B44" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1"/>
+      <c r="B45" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1"/>
+      <c r="B47" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1"/>
+      <c r="B48" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1"/>
+      <c r="B50" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1"/>
+      <c r="B51" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1"/>
+      <c r="B52" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1"/>
+      <c r="B54" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="10">
     <mergeCell ref="A1:A8"/>
     <mergeCell ref="A9:A14"/>
-    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A15:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A31"/>
+    <mergeCell ref="A32:A38"/>
+    <mergeCell ref="A39:A45"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="A53:A54"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:C34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.2" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="12.0833333333333" customWidth="1"/>
+    <col min="2" max="2" width="16.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="24.9333333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="2"/>
+      <c r="C34" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:A16"/>
+    <mergeCell ref="A17:A34"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="B17:B24"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="B33:B34"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>